--- a/web-app/src/test/resources/Band.xlsx
+++ b/web-app/src/test/resources/Band.xlsx
@@ -1,94 +1,115 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Band" r:id="rId3" sheetId="1"/>
+    <sheet name="Band" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>bandId</t>
-  </si>
-  <si>
-    <t>bandName</t>
-  </si>
-  <si>
-    <t>bandDetails</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>MY COVER BAND</t>
-  </si>
-  <si>
-    <t>Alternative&amp;Metal</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>MY BAND</t>
-  </si>
-  <si>
-    <t>Metal</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>MUSE</t>
-  </si>
-  <si>
-    <t>Rock</t>
+    <t xml:space="preserve">bandId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bandName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bandDetails</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MY COVER BAND1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alternative&amp;Metal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MY BAND1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUSE1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rock</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
-    <font>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="5">
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="12.0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
       <b val="true"/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="22"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FFCCCCFF"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -96,46 +117,86 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="10.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9.109375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.3984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.81640625" customWidth="true" bestFit="true"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.67"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="50.0" customHeight="true">
+    <row r="2" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -146,7 +207,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="50.0" customHeight="true">
+    <row r="3" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -157,7 +218,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" ht="50.0" customHeight="true">
+    <row r="4" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -169,6 +230,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>